--- a/ЛР №1/lab_1/Orlov/keyboard_1/data_exp_1/17_keys/17_keys.xlsx
+++ b/ЛР №1/lab_1/Orlov/keyboard_1/data_exp_1/17_keys/17_keys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\ЛР №1\Петя\1 эксперимент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\данные\Петя\клавиатура 1\эксперимент 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC467BD9-D52B-4991-9F7B-93FBFF71D76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD1D45C-E5D2-4E1F-BCFB-12CBAC3B46A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16200" windowHeight="9970"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
